--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-19T15:02:19+00:00</t>
+    <t>2023-05-25T14:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:49:04+00:00</t>
+    <t>2023-05-25T15:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T15:18:34+00:00</t>
+    <t>2023-05-26T07:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T07:34:33+00:00</t>
+    <t>2023-05-30T07:39:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T07:39:15+00:00</t>
+    <t>2023-05-30T09:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:25:12+00:00</t>
+    <t>2023-06-21T13:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T19:00:02+00:00</t>
+    <t>2023-10-02T12:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T12:13:21+00:00</t>
+    <t>2023-10-04T08:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T08:03:23+00:00</t>
+    <t>2023-10-05T15:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:35:45+00:00</t>
+    <t>2023-10-10T19:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:44:47+00:00</t>
+    <t>2023-10-11T18:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:07:13+00:00</t>
+    <t>2023-10-12T12:56:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:56:35+00:00</t>
+    <t>2023-10-12T14:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T14:17:28+00:00</t>
+    <t>2023-10-12T18:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T18:56:25+00:00</t>
+    <t>2023-10-16T11:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/all-profiles.xlsx
+++ b/r5-LinkedCare-dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:32:34+00:00</t>
+    <t>2023-10-16T15:04:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
